--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="150">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,163 +46,172 @@
     <t>crap</t>
   </si>
   <si>
-    <t>terrible</t>
-  </si>
-  <si>
     <t>disappointing</t>
   </si>
   <si>
     <t>thin</t>
   </si>
   <si>
-    <t>inches</t>
+    <t>hole</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>disappointment</t>
+  </si>
+  <si>
+    <t>disappointed</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>however</t>
   </si>
   <si>
     <t>loose</t>
   </si>
   <si>
+    <t>pool</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>pool</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>instead</t>
   </si>
   <si>
     <t>tiny</t>
   </si>
   <si>
-    <t>instead</t>
+    <t>probably</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
     <t>short</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>missing</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>apart</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>cheap</t>
+    <t>lasted</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>okay</t>
+    <t>half</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>maybe</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>half</t>
+    <t>tried</t>
   </si>
   <si>
     <t>fl</t>
   </si>
   <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
     <t>nothing</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>bit</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>parts</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>return</t>
+    <t>money</t>
+  </si>
+  <si>
+    <t>fit</t>
   </si>
   <si>
     <t>seems</t>
@@ -211,129 +220,114 @@
     <t>though</t>
   </si>
   <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>fit</t>
+    <t>item</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>worked</t>
   </si>
   <si>
+    <t>picture</t>
+  </si>
+  <si>
     <t>back</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>look</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>34</t>
   </si>
   <si>
     <t>put</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>pieces</t>
+    <t>buy</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
     <t>even</t>
   </si>
   <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>toy</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
-    <t>got</t>
+    <t>bought</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -343,118 +337,115 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>favorite</t>
+    <t>fantastic</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
     <t>enjoyable</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>expansion</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
-    <t>grandchildren</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>every</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>enjoy</t>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>birthday</t>
-  </si>
-  <si>
     <t>ages</t>
   </si>
   <si>
     <t>book</t>
   </si>
   <si>
+    <t>lots</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
+    <t>games</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
-    <t>easy</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>playing</t>
   </si>
   <si>
     <t>cute</t>
   </si>
   <si>
-    <t>playing</t>
-  </si>
-  <si>
     <t>play</t>
   </si>
   <si>
-    <t>children</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>grandson</t>
   </si>
   <si>
     <t>year</t>
@@ -463,13 +454,13 @@
     <t>well</t>
   </si>
   <si>
-    <t>son</t>
-  </si>
-  <si>
     <t>kids</t>
   </si>
   <si>
     <t>good</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>positive</t>
@@ -830,7 +821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q100"/>
+  <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -838,10 +829,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -920,16 +911,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K3">
-        <v>0.8923076923076924</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -941,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -949,13 +940,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8571428571428571</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -967,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K4">
-        <v>0.875</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -991,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -999,13 +990,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8421052631578947</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1017,19 +1008,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K5">
-        <v>0.8518518518518519</v>
+        <v>0.8602150537634409</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1041,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1049,13 +1040,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8181818181818182</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C6">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1067,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K6">
-        <v>0.8494623655913979</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L6">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="M6">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1091,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1099,13 +1090,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7931034482758621</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1117,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K7">
-        <v>0.8125</v>
+        <v>0.8</v>
       </c>
       <c r="L7">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="M7">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1141,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1149,13 +1140,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7727272727272727</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1167,19 +1158,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K8">
-        <v>0.8</v>
+        <v>0.796875</v>
       </c>
       <c r="L8">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="M8">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1191,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1199,13 +1190,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7605633802816901</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1217,19 +1208,19 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L9">
         <v>17</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K9">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="L9">
-        <v>19</v>
-      </c>
       <c r="M9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1241,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1249,49 +1240,49 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7407407407407407</v>
+        <v>0.7580645161290323</v>
       </c>
       <c r="C10">
+        <v>141</v>
+      </c>
+      <c r="D10">
+        <v>141</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>45</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10">
+        <v>0.6226415094339622</v>
+      </c>
+      <c r="L10">
+        <v>33</v>
+      </c>
+      <c r="M10">
+        <v>33</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>20</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>7</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K10">
-        <v>0.6792452830188679</v>
-      </c>
-      <c r="L10">
-        <v>36</v>
-      </c>
-      <c r="M10">
-        <v>36</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1299,13 +1290,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7150537634408602</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C11">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1317,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K11">
-        <v>0.5797101449275363</v>
+        <v>0.563845050215208</v>
       </c>
       <c r="L11">
-        <v>40</v>
+        <v>393</v>
       </c>
       <c r="M11">
-        <v>40</v>
+        <v>393</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1341,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>29</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1349,13 +1340,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6956521739130435</v>
+        <v>0.703125</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1367,19 +1358,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K12">
-        <v>0.5753228120516499</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="L12">
-        <v>401</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>401</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1391,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>296</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1399,13 +1390,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6756756756756757</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1417,19 +1408,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K13">
-        <v>0.5477178423236515</v>
+        <v>0.533195020746888</v>
       </c>
       <c r="L13">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M13">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1441,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1449,13 +1440,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6699029126213593</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="C14">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1467,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K14">
-        <v>0.4614754098360656</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L14">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="M14">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1491,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>657</v>
+        <v>640</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1499,13 +1490,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6578947368421053</v>
+        <v>0.6824324324324325</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1517,19 +1508,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K15">
-        <v>0.3962264150943396</v>
+        <v>0.382262996941896</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1541,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>32</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1549,13 +1540,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.65625</v>
+        <v>0.6407766990291263</v>
       </c>
       <c r="C16">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="D16">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1567,19 +1558,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K16">
-        <v>0.382262996941896</v>
+        <v>0.3795180722891566</v>
       </c>
       <c r="L16">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="M16">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1591,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>202</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1599,13 +1590,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6545454545454545</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1617,19 +1608,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K17">
-        <v>0.3756613756613756</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="L17">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="M17">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1641,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>118</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1649,13 +1640,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6285714285714286</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1667,31 +1658,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K18">
+        <v>0.3544973544973545</v>
+      </c>
+      <c r="L18">
+        <v>67</v>
+      </c>
+      <c r="M18">
+        <v>67</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>122</v>
-      </c>
-      <c r="K18">
-        <v>0.3583333333333333</v>
-      </c>
-      <c r="L18">
-        <v>43</v>
-      </c>
-      <c r="M18">
-        <v>43</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1699,13 +1690,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6285714285714286</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1717,19 +1708,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K19">
-        <v>0.3313253012048193</v>
+        <v>0.325</v>
       </c>
       <c r="L19">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1741,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1770,16 +1761,16 @@
         <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K20">
-        <v>0.3191489361702128</v>
+        <v>0.265625</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1791,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1799,13 +1790,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5483870967741935</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1817,19 +1808,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K21">
-        <v>0.2734375</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1841,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>93</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1849,13 +1840,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5462184873949579</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C22">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1867,31 +1858,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K22">
-        <v>0.2727272727272727</v>
+        <v>0.2378378378378379</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>40</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1899,13 +1890,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5246376811594203</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C23">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1917,19 +1908,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K23">
-        <v>0.2542372881355932</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1941,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1949,13 +1940,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5060240963855421</v>
+        <v>0.5159420289855072</v>
       </c>
       <c r="C24">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="D24">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1967,19 +1958,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K24">
-        <v>0.248</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1991,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>94</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2002,10 +1993,10 @@
         <v>0.5</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2017,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K25">
-        <v>0.2409638554216867</v>
+        <v>0.2</v>
       </c>
       <c r="L25">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2041,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>189</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2052,10 +2043,10 @@
         <v>0.5</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D26">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2067,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K26">
-        <v>0.2365591397849462</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="L26">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2091,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>142</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2099,13 +2090,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4814814814814815</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2117,19 +2108,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K27">
-        <v>0.2167832167832168</v>
+        <v>0.1954022988505747</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2141,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>112</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2170,28 +2161,28 @@
         <v>23</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K28">
-        <v>0.1973684210526316</v>
+        <v>0.1888111888111888</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2199,13 +2190,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4285714285714285</v>
+        <v>0.4597156398104265</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="D29">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2217,19 +2208,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K29">
-        <v>0.1954022988505747</v>
+        <v>0.1638913234005259</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2241,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>70</v>
+        <v>954</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2249,13 +2240,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4251968503937008</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C30">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D30">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2267,19 +2258,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K30">
-        <v>0.1904761904761905</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L30">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M30">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2291,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2299,13 +2290,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4222222222222222</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C31">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2317,19 +2308,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K31">
-        <v>0.1833333333333333</v>
+        <v>0.1493506493506493</v>
       </c>
       <c r="L31">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2338,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>931</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2349,13 +2340,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.421875</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C32">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2367,31 +2358,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K32">
-        <v>0.1452991452991453</v>
+        <v>0.1239669421487603</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2399,13 +2390,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4166666666666667</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="C33">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D33">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2417,31 +2408,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K33">
-        <v>0.1452991452991453</v>
+        <v>0.1234567901234568</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>100</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2449,13 +2440,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4126984126984127</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="C34">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2467,31 +2458,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K34">
-        <v>0.1363636363636364</v>
+        <v>0.1075949367088608</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2499,13 +2490,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4105263157894737</v>
+        <v>0.40625</v>
       </c>
       <c r="C35">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D35">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2517,31 +2508,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K35">
-        <v>0.1131339401820546</v>
+        <v>0.106951871657754</v>
       </c>
       <c r="L35">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="M35">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="N35">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>1364</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2549,13 +2540,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.40625</v>
+        <v>0.4015748031496063</v>
       </c>
       <c r="C36">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2570,28 +2561,28 @@
         <v>76</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K36">
-        <v>0.1030640668523677</v>
+        <v>0.09217877094972067</v>
       </c>
       <c r="L36">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M36">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2602,10 +2593,10 @@
         <v>0.4</v>
       </c>
       <c r="C37">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2617,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K37">
-        <v>0.09893048128342247</v>
+        <v>0.0896551724137931</v>
       </c>
       <c r="L37">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M37">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2641,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>337</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2649,13 +2640,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3846153846153846</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2667,19 +2658,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K38">
-        <v>0.0933852140077821</v>
+        <v>0.08024691358024691</v>
       </c>
       <c r="L38">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M38">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2691,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>233</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2699,13 +2690,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3838862559241706</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="C39">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="D39">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2717,31 +2708,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K39">
-        <v>0.0804953560371517</v>
+        <v>0.078125</v>
       </c>
       <c r="L39">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M39">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N39">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O39">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>297</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2749,13 +2740,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3809523809523809</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2767,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K40">
         <v>0.07466666666666667</v>
@@ -2799,49 +2790,49 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3703703703703703</v>
+        <v>0.359375</v>
       </c>
       <c r="C41">
+        <v>23</v>
+      </c>
+      <c r="D41">
+        <v>23</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>41</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K41">
+        <v>0.06070287539936102</v>
+      </c>
+      <c r="L41">
+        <v>19</v>
+      </c>
+      <c r="M41">
         <v>20</v>
       </c>
-      <c r="D41">
-        <v>20</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>34</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K41">
-        <v>0.07389162561576355</v>
-      </c>
-      <c r="L41">
-        <v>15</v>
-      </c>
-      <c r="M41">
-        <v>17</v>
-      </c>
       <c r="N41">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="O41">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>188</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2849,49 +2840,49 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3483146067415731</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>15</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>27</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K42">
+        <v>0.05252525252525252</v>
+      </c>
+      <c r="L42">
+        <v>26</v>
+      </c>
+      <c r="M42">
         <v>31</v>
       </c>
-      <c r="D42">
-        <v>31</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>58</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K42">
-        <v>0.07241379310344828</v>
-      </c>
-      <c r="L42">
-        <v>21</v>
-      </c>
-      <c r="M42">
-        <v>21</v>
-      </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>269</v>
+        <v>469</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2899,13 +2890,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3333333333333333</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C43">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D43">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2917,31 +2908,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K43">
-        <v>0.048582995951417</v>
+        <v>0.05167958656330749</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M43">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N43">
-        <v>0.8</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O43">
-        <v>0.2</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>470</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2949,13 +2940,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3283582089552239</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C44">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D44">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2967,31 +2958,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K44">
-        <v>0.04081632653061224</v>
+        <v>0.03191489361702127</v>
       </c>
       <c r="L44">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M44">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N44">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="O44">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>376</v>
+        <v>546</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2999,13 +2990,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3214285714285715</v>
+        <v>0.3217821782178218</v>
       </c>
       <c r="C45">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="D45">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3017,31 +3008,31 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K45">
-        <v>0.03953488372093023</v>
+        <v>0.02849002849002849</v>
       </c>
       <c r="L45">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M45">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N45">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="O45">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>413</v>
+        <v>682</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3049,13 +3040,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3148148148148148</v>
+        <v>0.3108108108108108</v>
       </c>
       <c r="C46">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D46">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3067,31 +3058,31 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K46">
-        <v>0.03202846975088968</v>
+        <v>0.02199413489736071</v>
       </c>
       <c r="L46">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M46">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N46">
-        <v>0.86</v>
+        <v>0.6</v>
       </c>
       <c r="O46">
-        <v>0.14</v>
+        <v>0.4</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>544</v>
+        <v>667</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3099,13 +3090,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3103448275862069</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="C47">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3117,31 +3108,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>40</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K47">
-        <v>0.02421652421652421</v>
-      </c>
-      <c r="L47">
-        <v>17</v>
-      </c>
-      <c r="M47">
-        <v>20</v>
-      </c>
-      <c r="N47">
-        <v>0.85</v>
-      </c>
-      <c r="O47">
-        <v>0.15</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>685</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3149,13 +3116,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3076923076923077</v>
+        <v>0.303370786516854</v>
       </c>
       <c r="C48">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3167,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3175,13 +3142,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3069306930693069</v>
+        <v>0.2835820895522388</v>
       </c>
       <c r="C49">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="D49">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3193,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>140</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3201,13 +3168,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2857142857142857</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="C50">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D50">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3219,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3227,13 +3194,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2786885245901639</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="C51">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D51">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3245,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3253,13 +3220,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2702702702702703</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="C52">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D52">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3271,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3279,13 +3246,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2666666666666667</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="C53">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3297,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3305,13 +3272,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2653061224489796</v>
+        <v>0.2417582417582418</v>
       </c>
       <c r="C54">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D54">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3323,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3331,13 +3298,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2628865979381443</v>
+        <v>0.2288135593220339</v>
       </c>
       <c r="C55">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D55">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3349,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>143</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3357,13 +3324,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2608695652173913</v>
+        <v>0.22</v>
       </c>
       <c r="C56">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D56">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3375,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>51</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3383,13 +3350,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2580645161290323</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C57">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3401,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3409,13 +3376,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2432432432432433</v>
+        <v>0.211340206185567</v>
       </c>
       <c r="C58">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D58">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3427,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>56</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3435,13 +3402,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2393162393162393</v>
+        <v>0.2088607594936709</v>
       </c>
       <c r="C59">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D59">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3453,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>89</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3461,13 +3428,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2162162162162162</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="C60">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D60">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3479,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3487,13 +3454,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2061855670103093</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C61">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D61">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3505,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3513,25 +3480,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1965317919075145</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="C62">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D62">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="E62">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>278</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3539,13 +3506,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1944444444444444</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="C63">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D63">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3557,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>87</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3565,25 +3532,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1942446043165468</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C64">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D64">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E64">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F64">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3591,13 +3558,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.19</v>
+        <v>0.1822429906542056</v>
       </c>
       <c r="C65">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D65">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3609,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3617,25 +3584,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1884057971014493</v>
+        <v>0.1815561959654179</v>
       </c>
       <c r="C66">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D66">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>224</v>
+        <v>284</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3643,25 +3610,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1867088607594937</v>
+        <v>0.1797919762258544</v>
       </c>
       <c r="C67">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="D67">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>257</v>
+        <v>552</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3669,25 +3636,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1827637444279346</v>
+        <v>0.1759259259259259</v>
       </c>
       <c r="C68">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="D68">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="E68">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>550</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3695,25 +3662,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1714285714285714</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="C69">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D69">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="E69">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>261</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3721,13 +3688,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1649484536082474</v>
+        <v>0.1642857142857143</v>
       </c>
       <c r="C70">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D70">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3739,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3747,13 +3714,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1592356687898089</v>
+        <v>0.1607929515418502</v>
       </c>
       <c r="C71">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D71">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3765,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>132</v>
+        <v>381</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3773,13 +3740,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1525423728813559</v>
+        <v>0.1570680628272251</v>
       </c>
       <c r="C72">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D72">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3791,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>100</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3799,25 +3766,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1417322834645669</v>
+        <v>0.15625</v>
       </c>
       <c r="C73">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D73">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E73">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3825,13 +3792,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1387665198237885</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="C74">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D74">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3843,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>391</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3851,25 +3818,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1330645161290323</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="C75">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D75">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3903,13 +3870,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1308900523560209</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="C77">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D77">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3921,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3929,25 +3896,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1308411214953271</v>
+        <v>0.1271676300578035</v>
       </c>
       <c r="C78">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D78">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>186</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3955,25 +3922,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1240601503759398</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="C79">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D79">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E79">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>233</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3981,25 +3948,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1233766233766234</v>
+        <v>0.1181318681318681</v>
       </c>
       <c r="C80">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D80">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>135</v>
+        <v>321</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4007,25 +3974,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.120253164556962</v>
+        <v>0.1178861788617886</v>
       </c>
       <c r="C81">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D81">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>139</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4033,13 +4000,13 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1202185792349727</v>
+        <v>0.1139240506329114</v>
       </c>
       <c r="C82">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D82">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4051,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4059,25 +4026,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1182795698924731</v>
+        <v>0.1103896103896104</v>
       </c>
       <c r="C83">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D83">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E83">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>164</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4085,25 +4052,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1182795698924731</v>
+        <v>0.1098591549295775</v>
       </c>
       <c r="C84">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D84">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E84">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>246</v>
+        <v>316</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4111,25 +4078,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1148648648648649</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="C85">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D85">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>131</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4137,25 +4104,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.109375</v>
+        <v>0.1049107142857143</v>
       </c>
       <c r="C86">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D86">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>171</v>
+        <v>401</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4163,25 +4130,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1046831955922865</v>
+        <v>0.09375</v>
       </c>
       <c r="C87">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D87">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E87">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>325</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4189,25 +4156,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1011904761904762</v>
+        <v>0.09278350515463918</v>
       </c>
       <c r="C88">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D88">
         <v>20</v>
       </c>
       <c r="E88">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F88">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4215,25 +4182,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09821428571428571</v>
+        <v>0.08960573476702509</v>
       </c>
       <c r="C89">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D89">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E89">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F89">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>404</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4241,25 +4208,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09693877551020408</v>
+        <v>0.08925619834710743</v>
       </c>
       <c r="C90">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D90">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>177</v>
+        <v>551</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4267,25 +4234,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.09405940594059406</v>
+        <v>0.08241758241758242</v>
       </c>
       <c r="C91">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="D91">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E91">
-        <v>0.03</v>
+        <v>0.21</v>
       </c>
       <c r="F91">
-        <v>0.97</v>
+        <v>0.79</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>549</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4293,25 +4260,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.09148264984227129</v>
+        <v>0.07278481012658228</v>
       </c>
       <c r="C92">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D92">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4319,25 +4286,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.0903954802259887</v>
+        <v>0.07151979565772669</v>
       </c>
       <c r="C93">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D93">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E93">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="F93">
-        <v>0.97</v>
+        <v>0.84</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>322</v>
+        <v>727</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4345,25 +4312,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.08</v>
+        <v>0.0598159509202454</v>
       </c>
       <c r="C94">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D94">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E94">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F94">
-        <v>0.79</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>391</v>
+        <v>613</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4371,25 +4338,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.05990783410138249</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C95">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D95">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E95">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="F95">
-        <v>0.91</v>
+        <v>0.74</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>612</v>
+        <v>400</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4397,25 +4364,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.05597964376590331</v>
+        <v>0.04235294117647059</v>
       </c>
       <c r="C96">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D96">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="E96">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="F96">
-        <v>0.85</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>742</v>
+        <v>407</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4423,25 +4390,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.04694835680751173</v>
+        <v>0.038</v>
       </c>
       <c r="C97">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D97">
         <v>23</v>
       </c>
       <c r="E97">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="F97">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>406</v>
+        <v>481</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4449,77 +4416,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.04285714285714286</v>
+        <v>0.03644646924829157</v>
       </c>
       <c r="C98">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D98">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E98">
-        <v>0.06</v>
+        <v>0.33</v>
       </c>
       <c r="F98">
-        <v>0.9399999999999999</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B99">
-        <v>0.03464203233256351</v>
-      </c>
-      <c r="C99">
-        <v>15</v>
-      </c>
-      <c r="D99">
-        <v>29</v>
-      </c>
-      <c r="E99">
-        <v>0.48</v>
-      </c>
-      <c r="F99">
-        <v>0.52</v>
-      </c>
-      <c r="G99" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100">
-        <v>0.034</v>
-      </c>
-      <c r="C100">
-        <v>17</v>
-      </c>
-      <c r="D100">
-        <v>21</v>
-      </c>
-      <c r="E100">
-        <v>0.19</v>
-      </c>
-      <c r="F100">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G100" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100">
-        <v>483</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
